--- a/inst/extdata/toyFiles/FROC/frocCrAbnormalCasesFirst.xlsx
+++ b/inst/extdata/toyFiles/FROC/frocCrAbnormalCasesFirst.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE039B1-5DAB-43CC-8841-DFD5A5D0364F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDC28F3-009F-C142-8919-7865A2F78AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="60" windowWidth="9780" windowHeight="8280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7020" yWindow="60" windowWidth="10000" windowHeight="8280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TP" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>FROC</t>
   </si>
   <si>
-    <t>crossed</t>
-  </si>
-  <si>
     <t>TP_Rating</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>1, 2</t>
+  </si>
+  <si>
+    <t>FCTRL</t>
   </si>
 </sst>
 </file>
@@ -427,18 +427,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="8.83203125" style="8"/>
     <col min="2" max="2" width="10" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.88671875" style="8"/>
+    <col min="3" max="5" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -452,10 +452,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -473,7 +473,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -491,7 +491,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -509,7 +509,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -527,7 +527,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -545,7 +545,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -563,7 +563,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>1</v>
       </c>
@@ -581,7 +581,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>1</v>
       </c>
@@ -599,7 +599,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>1</v>
       </c>
@@ -617,7 +617,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>1</v>
       </c>
@@ -635,7 +635,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>1</v>
       </c>
@@ -653,7 +653,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>1</v>
       </c>
@@ -671,7 +671,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>1</v>
       </c>
@@ -689,7 +689,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>1</v>
       </c>
@@ -707,7 +707,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>1</v>
       </c>
@@ -725,7 +725,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>1</v>
       </c>
@@ -743,7 +743,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>1</v>
       </c>
@@ -761,7 +761,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>1</v>
       </c>
@@ -779,7 +779,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>1</v>
       </c>
@@ -797,7 +797,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>1</v>
       </c>
@@ -815,7 +815,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>1</v>
       </c>
@@ -833,7 +833,7 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>1</v>
       </c>
@@ -851,7 +851,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>1</v>
       </c>
@@ -869,7 +869,7 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>1</v>
       </c>
@@ -887,7 +887,7 @@
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>1</v>
       </c>
@@ -905,7 +905,7 @@
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>1</v>
       </c>
@@ -923,7 +923,7 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>1</v>
       </c>
@@ -941,7 +941,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>1</v>
       </c>
@@ -959,7 +959,7 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>1</v>
       </c>
@@ -977,7 +977,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>1</v>
       </c>
@@ -995,7 +995,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>1</v>
       </c>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>1</v>
       </c>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>1</v>
       </c>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>1</v>
       </c>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>1</v>
       </c>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>1</v>
       </c>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>1</v>
       </c>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>1</v>
       </c>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>1</v>
       </c>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>1</v>
       </c>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>1</v>
       </c>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>1</v>
       </c>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>1</v>
       </c>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>1</v>
       </c>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>1</v>
       </c>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>1</v>
       </c>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>1</v>
       </c>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>1</v>
       </c>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>1</v>
       </c>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>1</v>
       </c>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>1</v>
       </c>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>1</v>
       </c>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>1</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
         <v>1</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <v>1</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>1</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>1</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
         <v>1</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
         <v>1</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
         <v>1</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
         <v>1</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
         <v>1</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
         <v>2</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
         <v>2</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="9">
         <v>2</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
         <v>2</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
         <v>2</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
         <v>2</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
         <v>2</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
         <v>2</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="9">
         <v>2</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
         <v>2</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="9">
         <v>2</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
         <v>2</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="9">
         <v>2</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="9">
         <v>2</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="9">
         <v>2</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="9">
         <v>2</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="9">
         <v>2</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="9">
         <v>2</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="9">
         <v>2</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="9">
         <v>2</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="9">
         <v>2</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="9">
         <v>2</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="9">
         <v>2</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="9">
         <v>2</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="9">
         <v>2</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="9">
         <v>2</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="9">
         <v>2</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="9">
         <v>2</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="9">
         <v>2</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="9">
         <v>2</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="9">
         <v>2</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="9">
         <v>2</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="9">
         <v>2</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="9">
         <v>2</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="9">
         <v>2</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="9">
         <v>2</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="9">
         <v>2</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="9">
         <v>2</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="9">
         <v>2</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="9">
         <v>2</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="9">
         <v>2</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="9">
         <v>2</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="9">
         <v>2</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="9">
         <v>2</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="9">
         <v>2</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="9">
         <v>2</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="9">
         <v>2</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="9">
         <v>2</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="9">
         <v>2</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="9">
         <v>2</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="9">
         <v>2</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="9">
         <v>2</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="9">
         <v>2</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="9">
         <v>2</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="9">
         <v>2</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="9">
         <v>2</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="9">
         <v>2</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="9">
         <v>2</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="9">
         <v>2</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="9">
         <v>2</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="9">
         <v>2</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="9">
         <v>2</v>
       </c>
@@ -2628,12 +2628,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="10.21875" style="1" customWidth="1"/>
+    <col min="1" max="4" width="10.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2644,10 +2644,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2663,7 +2663,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2679,7 +2679,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -2695,7 +2695,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -2711,7 +2711,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -2727,7 +2727,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -2743,7 +2743,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -2759,7 +2759,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -2775,7 +2775,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -2791,7 +2791,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -2807,7 +2807,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -2823,7 +2823,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -2839,7 +2839,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -2855,7 +2855,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -2871,7 +2871,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -2887,7 +2887,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -2903,7 +2903,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -2919,7 +2919,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -2935,7 +2935,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>2</v>
       </c>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>2</v>
       </c>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>2</v>
       </c>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>2</v>
       </c>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>2</v>
       </c>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>2</v>
       </c>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>2</v>
       </c>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>2</v>
       </c>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>2</v>
       </c>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>2</v>
       </c>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>2</v>
       </c>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>2</v>
       </c>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>2</v>
       </c>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>2</v>
       </c>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>2</v>
       </c>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>2</v>
       </c>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>2</v>
       </c>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>2</v>
       </c>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>2</v>
       </c>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>2</v>
       </c>
@@ -3265,13 +3265,13 @@
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F44" s="1"/>
     </row>
   </sheetData>
@@ -3286,21 +3286,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6910F3-B8D7-4EF1-92B3-57A1E114BEC2}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -3320,7 +3320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3331,17 +3331,17 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -3352,17 +3352,17 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -3373,14 +3373,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3391,14 +3391,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -3409,14 +3409,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -3427,14 +3427,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -3445,14 +3445,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -3463,14 +3463,14 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -3481,14 +3481,14 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -3499,14 +3499,14 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -3517,14 +3517,14 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>2</v>
       </c>
@@ -3535,14 +3535,14 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>2</v>
       </c>
@@ -3553,14 +3553,14 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>3</v>
       </c>
@@ -3571,14 +3571,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>3</v>
       </c>
@@ -3589,14 +3589,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -3607,14 +3607,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>3</v>
       </c>
@@ -3625,14 +3625,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>3</v>
       </c>
@@ -3643,14 +3643,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>3</v>
       </c>
@@ -3661,14 +3661,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>3</v>
       </c>
@@ -3679,14 +3679,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>4</v>
       </c>
@@ -3697,14 +3697,14 @@
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>5</v>
       </c>
@@ -3715,14 +3715,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>5</v>
       </c>
@@ -3733,14 +3733,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>5</v>
       </c>
@@ -3751,14 +3751,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>5</v>
       </c>
@@ -3769,14 +3769,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>5</v>
       </c>
@@ -3787,14 +3787,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>5</v>
       </c>
@@ -3805,14 +3805,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>5</v>
       </c>
@@ -3823,14 +3823,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>6</v>
       </c>
@@ -3841,14 +3841,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>6</v>
       </c>
@@ -3859,14 +3859,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>6</v>
       </c>
@@ -3877,14 +3877,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>6</v>
       </c>
@@ -3895,14 +3895,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>6</v>
       </c>
@@ -3913,14 +3913,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>6</v>
       </c>
@@ -3931,14 +3931,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>6</v>
       </c>
@@ -3949,14 +3949,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>7</v>
       </c>
@@ -3967,14 +3967,14 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>7</v>
       </c>
@@ -3985,14 +3985,14 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>7</v>
       </c>
@@ -4003,14 +4003,14 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>7</v>
       </c>
@@ -4021,14 +4021,14 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>7</v>
       </c>
@@ -4039,14 +4039,14 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>7</v>
       </c>
@@ -4057,14 +4057,14 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>8</v>
       </c>
@@ -4075,14 +4075,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>8</v>
       </c>
@@ -4093,14 +4093,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>8</v>
       </c>
@@ -4111,14 +4111,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>8</v>
       </c>
@@ -4129,14 +4129,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>8</v>
       </c>
@@ -4147,14 +4147,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>8</v>
       </c>
@@ -4165,14 +4165,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>8</v>
       </c>
@@ -4183,14 +4183,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>9</v>
       </c>
@@ -4201,14 +4201,14 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>9</v>
       </c>
@@ -4219,14 +4219,14 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>9</v>
       </c>
@@ -4237,14 +4237,14 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>9</v>
       </c>
@@ -4255,14 +4255,14 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>9</v>
       </c>
@@ -4273,14 +4273,14 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>9</v>
       </c>
@@ -4291,14 +4291,14 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>10</v>
       </c>
@@ -4309,14 +4309,14 @@
         <v>0</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>11</v>
       </c>
@@ -4327,14 +4327,14 @@
         <v>0</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>12</v>
       </c>
@@ -4345,14 +4345,14 @@
         <v>0</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>13</v>
       </c>
@@ -4363,14 +4363,14 @@
         <v>0</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>14</v>
       </c>
@@ -4381,14 +4381,14 @@
         <v>0</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>15</v>
       </c>
@@ -4399,14 +4399,14 @@
         <v>0</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>16</v>
       </c>
@@ -4417,14 +4417,14 @@
         <v>0</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>17</v>
       </c>
@@ -4435,14 +4435,14 @@
         <v>0</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>18</v>
       </c>
@@ -4453,14 +4453,14 @@
         <v>0</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>19</v>
       </c>
@@ -4471,13 +4471,13 @@
         <v>0</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
     </row>
   </sheetData>
